--- a/downloaded_files/EPES414_Lecture-35426.xlsx
+++ b/downloaded_files/EPES414_Lecture-35426.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -102,6 +102,15 @@
     <x:t>Ingy Mahmoud Moustafa Mahmoud Omar</x:t>
   </x:si>
   <x:si>
+    <x:t>1210365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن ايمن السيد عبدالخالق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hassan ayman elsayed abdelkhalek</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210135</x:t>
   </x:si>
   <x:si>
@@ -156,6 +165,15 @@
     <x:t>Abd el Rahman Tarek Emam</x:t>
   </x:si>
   <x:si>
+    <x:t>1210058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله اشرف فاروق قاسم قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Farouk Kassem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220015</x:t>
   </x:si>
   <x:si>
@@ -174,15 +192,6 @@
     <x:t>ِ Aly Abdelhamid Fathy Abdelhamid Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد عباس ناصف مراد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Abass Nassef Mourad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210261</x:t>
   </x:si>
   <x:si>
@@ -192,6 +201,15 @@
     <x:t>Omar Hatem Mohamed Abdelmottaleb</x:t>
   </x:si>
   <x:si>
+    <x:t>1210263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد محمد لطفى عبد العزيز محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Lotfi Abd Elaziz Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210264</x:t>
   </x:si>
   <x:si>
@@ -262,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Awwad Abdel Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم خالد ابراهيم الدسوقى حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Khaled Ibrahim Eldessoki</x:t>
   </x:si>
   <x:si>
     <x:t>1210423</x:t>
@@ -431,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1076,7 +1103,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45927.4961106481</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1108,7 +1135,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1140,7 +1167,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1172,7 +1199,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1204,7 +1231,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1236,7 +1263,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1268,7 +1295,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1300,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6430680556</x:v>
+        <x:v>45927.501687963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1332,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6387388889</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1364,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45912.6430680556</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1455,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6650598032</x:v>
+        <x:v>45927.4727454861</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.6650598032</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146538542</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45927.4996027431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4169754977</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1830,6 +1857,102 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4169754977</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1842,6 +1965,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Smart Power Grid (EPES414) Location : [18203]18203-30-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EPES414_Lecture-35426.xlsx
+++ b/downloaded_files/EPES414_Lecture-35426.xlsx
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ايمن عبد الحميد عبد العزيز وهدان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ayman Abdelhamid Abdelaziz Wahdan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210362</x:t>
   </x:si>
   <x:si>
@@ -172,15 +181,6 @@
   </x:si>
   <x:si>
     <x:t>Abdullah Ashraf Farouk Kassem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على احمد على برعى على حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali ahmed ali borai ali hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210255</x:t>
@@ -849,7 +849,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4147028125</x:v>
+        <x:v>45927.9705853819</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -881,7 +881,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.8867763542</x:v>
+        <x:v>45906.4147028125</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -913,7 +913,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4143323727</x:v>
+        <x:v>45906.8867763542</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -945,7 +945,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.665384375</x:v>
+        <x:v>45906.4143323727</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -977,7 +977,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6647305556</x:v>
+        <x:v>45906.665384375</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1005,9 +1005,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.5845413194</x:v>
+        <x:v>45906.6647305556</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1030,16 +1032,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45906.5845413194</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1071,7 +1071,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646043171</x:v>
+        <x:v>45906.664603044</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1103,7 +1103,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4961106481</x:v>
+        <x:v>45906.6646043171</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1135,7 +1135,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45927.4961106481</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1167,7 +1167,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1199,7 +1199,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1231,7 +1231,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1263,7 +1263,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,7 +1295,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.501687963</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45927.501687963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/EPES414_Lecture-35426.xlsx
+++ b/downloaded_files/EPES414_Lecture-35426.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>hassan ayman elsayed abdelkhalek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين مصطفى مصطفى على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hussein mostafa mostafa aly</x:t>
   </x:si>
   <x:si>
     <x:t>1210135</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1167,7 +1176,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45929.8613633449</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1199,7 +1208,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1231,7 +1240,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1263,7 +1272,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,7 +1304,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.501687963</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1400,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6430680556</x:v>
+        <x:v>45927.501687963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1432,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45912.6430680556</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4727454861</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45927.4727454861</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650598032</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.6650598032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146538542</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4996027431</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45927.4996027431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4169754977</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45907.4169754977</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES414_Lecture-35426.xlsx
+++ b/downloaded_files/EPES414_Lecture-35426.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,12 @@
   </x:si>
   <x:si>
     <x:t>Ingy Mahmoud Moustafa Mahmoud Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1210365</x:t>
@@ -467,7 +473,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +773,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1140,11 +1146,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45927.4961106481</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1167,16 +1171,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45929.8613633449</x:v>
+        <x:v>45927.4961106481</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1199,16 +1203,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45929.8613633449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1231,16 +1235,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1263,16 +1267,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,16 +1299,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,16 +1331,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,16 +1363,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,16 +1395,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.501687963</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,16 +1427,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6430680556</x:v>
+        <x:v>45927.501687963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,16 +1459,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45912.6430680556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,16 +1491,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4727454861</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,16 +1523,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45927.4727454861</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,16 +1555,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650598032</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,16 +1587,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.6650598032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,16 +1619,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,16 +1651,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,16 +1683,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,16 +1715,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146538542</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,16 +1747,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,16 +1779,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4996027431</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,16 +1811,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45927.4996027431</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,16 +1843,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.6649126968</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,16 +1875,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,16 +1907,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4169754977</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,16 +1939,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45907.4169754977</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1967,16 +1971,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +1997,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
